--- a/natmiOut/OldD7/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.0423354468953</v>
+        <v>11.68463133333333</v>
       </c>
       <c r="H2">
-        <v>11.0423354468953</v>
+        <v>35.053894</v>
       </c>
       <c r="I2">
-        <v>0.1678108688520109</v>
+        <v>0.1650073836014231</v>
       </c>
       <c r="J2">
-        <v>0.1678108688520109</v>
+        <v>0.165007383601423</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N2">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O2">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P2">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q2">
-        <v>139.2289025561808</v>
+        <v>150.0344755098147</v>
       </c>
       <c r="R2">
-        <v>139.2289025561808</v>
+        <v>1350.310279588332</v>
       </c>
       <c r="S2">
-        <v>0.05963707312484537</v>
+        <v>0.05598912874760739</v>
       </c>
       <c r="T2">
-        <v>0.05963707312484537</v>
+        <v>0.05598912874760735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.0423354468953</v>
+        <v>11.68463133333333</v>
       </c>
       <c r="H3">
-        <v>11.0423354468953</v>
+        <v>35.053894</v>
       </c>
       <c r="I3">
-        <v>0.1678108688520109</v>
+        <v>0.1650073836014231</v>
       </c>
       <c r="J3">
-        <v>0.1678108688520109</v>
+        <v>0.165007383601423</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N3">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O3">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P3">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q3">
-        <v>108.0965462527665</v>
+        <v>114.9092740996645</v>
       </c>
       <c r="R3">
-        <v>108.0965462527665</v>
+        <v>1034.18346689698</v>
       </c>
       <c r="S3">
-        <v>0.04630189217226779</v>
+        <v>0.04288127858612972</v>
       </c>
       <c r="T3">
-        <v>0.04630189217226779</v>
+        <v>0.0428812785861297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.0423354468953</v>
+        <v>11.68463133333333</v>
       </c>
       <c r="H4">
-        <v>11.0423354468953</v>
+        <v>35.053894</v>
       </c>
       <c r="I4">
-        <v>0.1678108688520109</v>
+        <v>0.1650073836014231</v>
       </c>
       <c r="J4">
-        <v>0.1678108688520109</v>
+        <v>0.165007383601423</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N4">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O4">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P4">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q4">
-        <v>89.29316976934354</v>
+        <v>101.1219466193725</v>
       </c>
       <c r="R4">
-        <v>89.29316976934354</v>
+        <v>910.097519574352</v>
       </c>
       <c r="S4">
-        <v>0.03824768562644373</v>
+        <v>0.03773619142695211</v>
       </c>
       <c r="T4">
-        <v>0.03824768562644373</v>
+        <v>0.03773619142695209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.0423354468953</v>
+        <v>11.68463133333333</v>
       </c>
       <c r="H5">
-        <v>11.0423354468953</v>
+        <v>35.053894</v>
       </c>
       <c r="I5">
-        <v>0.1678108688520109</v>
+        <v>0.1650073836014231</v>
       </c>
       <c r="J5">
-        <v>0.1678108688520109</v>
+        <v>0.165007383601423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N5">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O5">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P5">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q5">
-        <v>55.15317509028457</v>
+        <v>76.10578969455202</v>
       </c>
       <c r="R5">
-        <v>55.15317509028457</v>
+        <v>684.9521072509681</v>
       </c>
       <c r="S5">
-        <v>0.02362421792845399</v>
+        <v>0.02840078484073389</v>
       </c>
       <c r="T5">
-        <v>0.02362421792845399</v>
+        <v>0.02840078484073387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.7352937649145</v>
+        <v>15.82343466666667</v>
       </c>
       <c r="H6">
-        <v>15.7352937649145</v>
+        <v>47.470304</v>
       </c>
       <c r="I6">
-        <v>0.2391299676622629</v>
+        <v>0.2234545087003506</v>
       </c>
       <c r="J6">
-        <v>0.2391299676622629</v>
+        <v>0.2234545087003506</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N6">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O6">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P6">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q6">
-        <v>198.4007543353644</v>
+        <v>203.1780595597013</v>
       </c>
       <c r="R6">
-        <v>198.4007543353644</v>
+        <v>1828.602536037312</v>
       </c>
       <c r="S6">
-        <v>0.0849826442433403</v>
+        <v>0.07582099045384406</v>
       </c>
       <c r="T6">
-        <v>0.0849826442433403</v>
+        <v>0.07582099045384402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.7352937649145</v>
+        <v>15.82343466666667</v>
       </c>
       <c r="H7">
-        <v>15.7352937649145</v>
+        <v>47.470304</v>
       </c>
       <c r="I7">
-        <v>0.2391299676622629</v>
+        <v>0.2234545087003506</v>
       </c>
       <c r="J7">
-        <v>0.2391299676622629</v>
+        <v>0.2234545087003506</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N7">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O7">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P7">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q7">
-        <v>154.0372431574869</v>
+        <v>155.6111904124089</v>
       </c>
       <c r="R7">
-        <v>154.0372431574869</v>
+        <v>1400.50071371168</v>
       </c>
       <c r="S7">
-        <v>0.06598005274390366</v>
+        <v>0.05807021982756801</v>
       </c>
       <c r="T7">
-        <v>0.06598005274390366</v>
+        <v>0.058070219827568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.7352937649145</v>
+        <v>15.82343466666667</v>
       </c>
       <c r="H8">
-        <v>15.7352937649145</v>
+        <v>47.470304</v>
       </c>
       <c r="I8">
-        <v>0.2391299676622629</v>
+        <v>0.2234545087003506</v>
       </c>
       <c r="J8">
-        <v>0.2391299676622629</v>
+        <v>0.2234545087003506</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N8">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O8">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P8">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q8">
-        <v>127.2424899857623</v>
+        <v>136.9402653837369</v>
       </c>
       <c r="R8">
-        <v>127.2424899857623</v>
+        <v>1232.462388453632</v>
       </c>
       <c r="S8">
-        <v>0.0545028333955753</v>
+        <v>0.05110269571875839</v>
       </c>
       <c r="T8">
-        <v>0.0545028333955753</v>
+        <v>0.05110269571875837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.7352937649145</v>
+        <v>15.82343466666667</v>
       </c>
       <c r="H9">
-        <v>15.7352937649145</v>
+        <v>47.470304</v>
       </c>
       <c r="I9">
-        <v>0.2391299676622629</v>
+        <v>0.2234545087003506</v>
       </c>
       <c r="J9">
-        <v>0.2391299676622629</v>
+        <v>0.2234545087003506</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N9">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O9">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P9">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q9">
-        <v>78.59310345053866</v>
+        <v>103.063156776832</v>
       </c>
       <c r="R9">
-        <v>78.59310345053866</v>
+        <v>927.5684109914881</v>
       </c>
       <c r="S9">
-        <v>0.03366443727944358</v>
+        <v>0.03846060270018016</v>
       </c>
       <c r="T9">
-        <v>0.03366443727944358</v>
+        <v>0.03846060270018014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.2542372695803</v>
+        <v>36.36549133333333</v>
       </c>
       <c r="H10">
-        <v>33.2542372695803</v>
+        <v>109.096474</v>
       </c>
       <c r="I10">
-        <v>0.5053661407096814</v>
+        <v>0.5135441938313808</v>
       </c>
       <c r="J10">
-        <v>0.5053661407096814</v>
+        <v>0.5135441938313807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N10">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O10">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P10">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q10">
-        <v>419.2909174560789</v>
+        <v>466.9447638701746</v>
       </c>
       <c r="R10">
-        <v>419.2909174560789</v>
+        <v>4202.502874831572</v>
       </c>
       <c r="S10">
-        <v>0.1795983638872805</v>
+        <v>0.1742521538033978</v>
       </c>
       <c r="T10">
-        <v>0.1795983638872805</v>
+        <v>0.1742521538033976</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.2542372695803</v>
+        <v>36.36549133333333</v>
       </c>
       <c r="H11">
-        <v>33.2542372695803</v>
+        <v>109.096474</v>
       </c>
       <c r="I11">
-        <v>0.5053661407096814</v>
+        <v>0.5135441938313808</v>
       </c>
       <c r="J11">
-        <v>0.5053661407096814</v>
+        <v>0.5135441938313807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N11">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O11">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P11">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q11">
-        <v>325.5351383227854</v>
+        <v>357.6263633983978</v>
       </c>
       <c r="R11">
-        <v>325.5351383227854</v>
+        <v>3218.63727058558</v>
       </c>
       <c r="S11">
-        <v>0.1394391716980517</v>
+        <v>0.1334572499807998</v>
       </c>
       <c r="T11">
-        <v>0.1394391716980517</v>
+        <v>0.1334572499807997</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.2542372695803</v>
+        <v>36.36549133333333</v>
       </c>
       <c r="H12">
-        <v>33.2542372695803</v>
+        <v>109.096474</v>
       </c>
       <c r="I12">
-        <v>0.5053661407096814</v>
+        <v>0.5135441938313808</v>
       </c>
       <c r="J12">
-        <v>0.5053661407096814</v>
+        <v>0.5135441938313807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N12">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O12">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P12">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q12">
-        <v>268.9083544276446</v>
+        <v>314.7167564376658</v>
       </c>
       <c r="R12">
-        <v>268.9083544276446</v>
+        <v>2832.450807938992</v>
       </c>
       <c r="S12">
-        <v>0.115183750661341</v>
+        <v>0.1174444535853707</v>
       </c>
       <c r="T12">
-        <v>0.115183750661341</v>
+        <v>0.1174444535853706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.2542372695803</v>
+        <v>36.36549133333333</v>
       </c>
       <c r="H13">
-        <v>33.2542372695803</v>
+        <v>109.096474</v>
       </c>
       <c r="I13">
-        <v>0.5053661407096814</v>
+        <v>0.5135441938313808</v>
       </c>
       <c r="J13">
-        <v>0.5053661407096814</v>
+        <v>0.5135441938313807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N13">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O13">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P13">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q13">
-        <v>166.0950058475813</v>
+        <v>236.860227473192</v>
       </c>
       <c r="R13">
-        <v>166.0950058475813</v>
+        <v>2131.742047258728</v>
       </c>
       <c r="S13">
-        <v>0.07114485446300813</v>
+        <v>0.08839033646181273</v>
       </c>
       <c r="T13">
-        <v>0.07114485446300813</v>
+        <v>0.08839033646181269</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.77039961993923</v>
+        <v>6.939221333333332</v>
       </c>
       <c r="H14">
-        <v>5.77039961993923</v>
+        <v>20.817664</v>
       </c>
       <c r="I14">
-        <v>0.08769302277604474</v>
+        <v>0.09799391386684557</v>
       </c>
       <c r="J14">
-        <v>0.08769302277604474</v>
+        <v>0.09799391386684556</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.6086463525546</v>
+        <v>12.840326</v>
       </c>
       <c r="N14">
-        <v>12.6086463525546</v>
+        <v>38.520978</v>
       </c>
       <c r="O14">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704512</v>
       </c>
       <c r="P14">
-        <v>0.3553826610446676</v>
+        <v>0.3393128690704511</v>
       </c>
       <c r="Q14">
-        <v>72.75692812072923</v>
+        <v>89.10186410615465</v>
       </c>
       <c r="R14">
-        <v>72.75692812072923</v>
+        <v>801.9167769553919</v>
       </c>
       <c r="S14">
-        <v>0.03116457978920143</v>
+        <v>0.03325059606560204</v>
       </c>
       <c r="T14">
-        <v>0.03116457978920143</v>
+        <v>0.03325059606560203</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.77039961993923</v>
+        <v>6.939221333333332</v>
       </c>
       <c r="H15">
-        <v>5.77039961993923</v>
+        <v>20.817664</v>
       </c>
       <c r="I15">
-        <v>0.08769302277604474</v>
+        <v>0.09799391386684557</v>
       </c>
       <c r="J15">
-        <v>0.08769302277604474</v>
+        <v>0.09799391386684556</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.78928296216171</v>
+        <v>9.834223333333334</v>
       </c>
       <c r="N15">
-        <v>9.78928296216171</v>
+        <v>29.50267</v>
       </c>
       <c r="O15">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175229</v>
       </c>
       <c r="P15">
-        <v>0.2759171231816964</v>
+        <v>0.2598749077175228</v>
       </c>
       <c r="Q15">
-        <v>56.48807468433552</v>
+        <v>68.24185235143111</v>
       </c>
       <c r="R15">
-        <v>56.48807468433552</v>
+        <v>614.17667116288</v>
       </c>
       <c r="S15">
-        <v>0.02419600656747324</v>
+        <v>0.02546615932302538</v>
       </c>
       <c r="T15">
-        <v>0.02419600656747324</v>
+        <v>0.02546615932302537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.77039961993923</v>
+        <v>6.939221333333332</v>
       </c>
       <c r="H16">
-        <v>5.77039961993923</v>
+        <v>20.817664</v>
       </c>
       <c r="I16">
-        <v>0.08769302277604474</v>
+        <v>0.09799391386684557</v>
       </c>
       <c r="J16">
-        <v>0.08769302277604474</v>
+        <v>0.09799391386684556</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.08643879718846</v>
+        <v>8.654269333333334</v>
       </c>
       <c r="N16">
-        <v>8.08643879718846</v>
+        <v>25.962808</v>
       </c>
       <c r="O16">
-        <v>0.2279213848786732</v>
+        <v>0.228693956617749</v>
       </c>
       <c r="P16">
-        <v>0.2279213848786732</v>
+        <v>0.2286939566177489</v>
       </c>
       <c r="Q16">
-        <v>46.66198336195814</v>
+        <v>60.05389038227911</v>
       </c>
       <c r="R16">
-        <v>46.66198336195814</v>
+        <v>540.4850134405119</v>
       </c>
       <c r="S16">
-        <v>0.01998711519531315</v>
+        <v>0.02241061588666781</v>
       </c>
       <c r="T16">
-        <v>0.01998711519531315</v>
+        <v>0.0224106158866678</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.77039961993923</v>
+        <v>6.939221333333332</v>
       </c>
       <c r="H17">
-        <v>5.77039961993923</v>
+        <v>20.817664</v>
       </c>
       <c r="I17">
-        <v>0.08769302277604474</v>
+        <v>0.09799391386684557</v>
       </c>
       <c r="J17">
-        <v>0.08769302277604474</v>
+        <v>0.09799391386684556</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.99470201349404</v>
+        <v>6.513324000000001</v>
       </c>
       <c r="N17">
-        <v>4.99470201349404</v>
+        <v>19.539972</v>
       </c>
       <c r="O17">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="P17">
-        <v>0.1407788308949626</v>
+        <v>0.1721182665942771</v>
       </c>
       <c r="Q17">
-        <v>28.82142660037572</v>
+        <v>45.197396851712</v>
       </c>
       <c r="R17">
-        <v>28.82142660037572</v>
+        <v>406.776571665408</v>
       </c>
       <c r="S17">
-        <v>0.01234532122405691</v>
+        <v>0.01686654259155036</v>
       </c>
       <c r="T17">
-        <v>0.01234532122405691</v>
+        <v>0.01686654259155035</v>
       </c>
     </row>
   </sheetData>
